--- a/leanCrm/datanew/physicalAreas/PhysicalSpacesTypes/data/PhysicalSpacesTypes.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalSpacesTypes/data/PhysicalSpacesTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>String</t>
   </si>
@@ -36,91 +36,97 @@
     <t>Fachada</t>
   </si>
   <si>
-    <t>T01</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
-    <t>T02</t>
-  </si>
-  <si>
     <t>Baño</t>
   </si>
   <si>
-    <t>T03</t>
-  </si>
-  <si>
     <t>Cocina</t>
   </si>
   <si>
-    <t>T04</t>
-  </si>
-  <si>
     <t>Rincon</t>
   </si>
   <si>
-    <t>T05</t>
-  </si>
-  <si>
     <t>Estudio</t>
   </si>
   <si>
-    <t>T06</t>
-  </si>
-  <si>
     <t>Sala</t>
   </si>
   <si>
-    <t>T07</t>
-  </si>
-  <si>
     <t>Comedor</t>
   </si>
   <si>
-    <t>T08</t>
-  </si>
-  <si>
     <t>Sala Comedor</t>
   </si>
   <si>
-    <t>T09</t>
-  </si>
-  <si>
     <t>Alcoba</t>
   </si>
   <si>
-    <t>T10</t>
-  </si>
-  <si>
     <t>Patio</t>
   </si>
   <si>
-    <t>T11</t>
-  </si>
-  <si>
     <t>Balcon</t>
   </si>
   <si>
-    <t>T12</t>
-  </si>
-  <si>
     <t>Escaleras</t>
   </si>
   <si>
-    <t>T13</t>
-  </si>
-  <si>
     <t>Pasillo</t>
   </si>
   <si>
-    <t>T14</t>
-  </si>
-  <si>
     <t>placa</t>
   </si>
   <si>
-    <t>T15</t>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Area Común</t>
   </si>
 </sst>
 </file>
@@ -930,10 +936,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -956,18 +965,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,111 +984,111 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/leanCrm/datanew/physicalAreas/PhysicalSpacesTypes/data/PhysicalSpacesTypes.xlsx
+++ b/leanCrm/datanew/physicalAreas/PhysicalSpacesTypes/data/PhysicalSpacesTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>String</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>Area Común</t>
+  </si>
+  <si>
+    <t>Garajes</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Patios</t>
+  </si>
+  <si>
+    <t>S19</t>
   </si>
 </sst>
 </file>
@@ -933,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,6 +1109,30 @@
         <v>34</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
